--- a/Infatlan_STEI_Inventario/pages/plantillas/plantillaEDC.xlsx
+++ b/Infatlan_STEI_Inventario/pages/plantillas/plantillaEDC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wpadilla\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wpadilla\source\repos\Infatlan_STEI_Actual\Infatlan_STEI_Inventario\pages\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2F91AA4-0468-44E8-A468-4210A3FBD85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0530DE-9DE0-45B0-BDEB-B298A5326413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D91AF69-3884-433F-9D19-F4EB97D7A432}"/>
   </bookViews>
@@ -31,27 +31,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Node Name</t>
-  </si>
-  <si>
-    <t>Machine Type</t>
-  </si>
-  <si>
-    <t>Chassis ID</t>
-  </si>
-  <si>
-    <t>IP Address</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>IOS Image</t>
-  </si>
-  <si>
-    <t>IOS Version</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>NOMBRE_NODO</t>
+  </si>
+  <si>
+    <t>SERIE</t>
+  </si>
+  <si>
+    <t>DIRECCION_IP</t>
+  </si>
+  <si>
+    <t>IOS_IMAGE</t>
+  </si>
+  <si>
+    <t>IOS_VERSION</t>
+  </si>
+  <si>
+    <t>LATITUD</t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>FECHA_MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>ID_PROVEEDOR</t>
+  </si>
+  <si>
+    <t>ID_TIPO</t>
+  </si>
+  <si>
+    <t>ID_REGION</t>
+  </si>
+  <si>
+    <t>ID_CONTRATO</t>
+  </si>
+  <si>
+    <t>ID_UBICACION</t>
   </si>
 </sst>
 </file>
@@ -69,24 +87,56 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -95,9 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,40 +465,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114B3B0-FC96-47E3-84C5-459EF7ACA5A7}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
